--- a/data/hotels_by_city/Houston/Houston_shard_678.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_678.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1146238-Reviews-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-WoodSpring-Suites-Houston-I-45-Airtex.h2133711.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,441 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r459365058-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1146238</t>
+  </si>
+  <si>
+    <t>459365058</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Felix Santiago</t>
+  </si>
+  <si>
+    <t>Great place affordable prices close to shopping,eating places staff so polite and courteous would recomend to all hope if company sends me to Houston again that they set me up here again no doubt...loved it really hope i can do it again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Great place affordable prices close to shopping,eating places staff so polite and courteous would recomend to all hope if company sends me to Houston again that they set me up here again no doubt...loved it really hope i can do it again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r457653257-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457653257</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Not Good even when desperate</t>
+  </si>
+  <si>
+    <t>Positives- front desk lady helpful and friendly….. That is the end of the positives.  Reception area only open during limited hours so don't even think of checking in before 3. We reserved here out of desperation as we found ourselves traveling back from a cruise on super bowl Sunday in Houston.  Hallway drab- room large but in a really cheap and horrible apartment sort of way.  Room also had an odor.  Beds- terrible.  Really bad- worst night of sleep I've had in quite a while.  Sheets terrible quality and itchy.  Top sheet was also your comforter but it was indeed a sheet.  Came back from Super Bowl past 11 and, our key card and the toilet had stopped working- thank goodness my daughter and mother were in the, room.  Earlier they had used 2 towels and that is all that had been provided.  When they went for 2 more because there is 4 people in the room…. They were told they would have to return the 2 used ones.  Now after 11- there was no one at the front desk and no one, answering the phone. There is a bathroom near reception for all to use as long as u don't need toilet paper because there was none of that.  Kicker was when we were leaving and I noticed on the door… max rate for room 84.99- I was charged 120… ..never ever ever again….!! MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Stephen S, Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded February 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2017</t>
+  </si>
+  <si>
+    <t>Positives- front desk lady helpful and friendly….. That is the end of the positives.  Reception area only open during limited hours so don't even think of checking in before 3. We reserved here out of desperation as we found ourselves traveling back from a cruise on super bowl Sunday in Houston.  Hallway drab- room large but in a really cheap and horrible apartment sort of way.  Room also had an odor.  Beds- terrible.  Really bad- worst night of sleep I've had in quite a while.  Sheets terrible quality and itchy.  Top sheet was also your comforter but it was indeed a sheet.  Came back from Super Bowl past 11 and, our key card and the toilet had stopped working- thank goodness my daughter and mother were in the, room.  Earlier they had used 2 towels and that is all that had been provided.  When they went for 2 more because there is 4 people in the room…. They were told they would have to return the 2 used ones.  Now after 11- there was no one at the front desk and no one, answering the phone. There is a bathroom near reception for all to use as long as u don't need toilet paper because there was none of that.  Kicker was when we were leaving and I noticed on the door… max rate for room 84.99- I was charged 120… ..never ever ever again….!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r433286780-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>433286780</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Friendly, helpful staff</t>
+  </si>
+  <si>
+    <t>Ms Latausha was very helpful, very considerate . She was able to put a smile on my family's faces...I would definitely recommend this hotel to family and friends. Thank you so much ma'am for going the extra mile.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Ms Latausha was very helpful, very considerate . She was able to put a smile on my family's faces...I would definitely recommend this hotel to family and friends. Thank you so much ma'am for going the extra mile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r419251491-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419251491</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location for my visit. The desk attendants were wonderful and friendly. Housekeeping was good, the rooms I had smelled clean and fresh! Loved the fact that there was an full size refrigerator! Only thing I could complain about was the carpet was a little worn, but overall the hotel is great! Will return on my next visit!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location for my visit. The desk attendants were wonderful and friendly. Housekeeping was good, the rooms I had smelled clean and fresh! Loved the fact that there was an full size refrigerator! Only thing I could complain about was the carpet was a little worn, but overall the hotel is great! Will return on my next visit!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r395369282-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395369282</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>True Southern Hospitality!</t>
+  </si>
+  <si>
+    <t>Staff so friendly &amp; extremely helpful. Ms. Ruby in house keeping did such a great job cleaning our room, I had to track her down &amp; get her name. Thank you to all the staff for being so warm. True southern hospitality!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded July 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2016</t>
+  </si>
+  <si>
+    <t>Staff so friendly &amp; extremely helpful. Ms. Ruby in house keeping did such a great job cleaning our room, I had to track her down &amp; get her name. Thank you to all the staff for being so warm. True southern hospitality!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r392189559-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392189559</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Transitional housing</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for about a week while transitioning to our new home. It was decent but of course tight. The staff was friendly, the location is convenient! Some of the semi-permanent tenants may visual cause concern but everything me was respectable.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for about a week while transitioning to our new home. It was decent but of course tight. The staff was friendly, the location is convenient! Some of the semi-permanent tenants may visual cause concern but everything me was respectable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r356590030-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356590030</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>This place has been very very good. Each time it has been clean and well kept. The staff has been so friendly and helpful. Also feel very secure, they have cameras and good parking lot lighting.  The refrigerator and microwave are great even when traveling for a few days.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>This place has been very very good. Each time it has been clean and well kept. The staff has been so friendly and helpful. Also feel very secure, they have cameras and good parking lot lighting.  The refrigerator and microwave are great even when traveling for a few days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r343780115-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343780115</t>
+  </si>
+  <si>
+    <t>01/30/2016</t>
+  </si>
+  <si>
+    <t>Very nice place to stay</t>
+  </si>
+  <si>
+    <t>I recommend this place because of the location and the staff is very friendly and helpful for all of my needs. They are very clean and quiet and right off the highway which makes it convenient to get around Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I recommend this place because of the location and the staff is very friendly and helpful for all of my needs. They are very clean and quiet and right off the highway which makes it convenient to get around Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r326672053-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326672053</t>
+  </si>
+  <si>
+    <t>11/14/2015</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>This place has really good rates it is clean and management is there pretty much all day. Love that the only way into the hotel is with a key that means people just can't walk into the hotel off the street. The staff is always smiling and very friendly especially the older black.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r320565747-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320565747</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>roaches and poor coniditions</t>
+  </si>
+  <si>
+    <t>Roaches were a common occurence in our room and the my SUV was keyed near the end of my stay, never heard even an apology or a word from the manager. Another car was hit parked and the person drove of again no help from the hotel manager</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r314558076-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>314558076</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>I stayed at the Airtex location for two weeks because of a managers training programs for Ross Stores. The staff was always welling to help me and sometimes would go out of their way to get whatever I needed.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r276298260-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>276298260</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t>The worse experience I have ever had. I have traveled significantly and this is by far the worse.</t>
+  </si>
+  <si>
+    <t>First, people here are rude and have no respect for the customer. Second, do your homework on this hotel chain. There is nothing inclusive in the price and by nothing I mean not even a coffee pot. I had a late check in just made it before 8:00. At 8:15 I realized that there was no iron in the room. I called the number listed for after hours and was told they had none. This place is a dump and unfortunately if I leave elsewhere I lose all funds paid according to the agreement.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r261142789-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261142789</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honesty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was an incident where we lost a gift card  on the property and one of the em]oyees found it and turned it in. Not only is this location professional  , their honesty is outstanding. There is also one of your travelling Corporate Managers named Robert that has gone above and beyond in the area of customer service as well. His level of service is truly second to none. </t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r240650324-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240650324</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>Very Clean !!</t>
+  </si>
+  <si>
+    <t>While moving from Oklahoma City to Houston due to my job relocation, I found this hotel near to my work location and in good price.  The only negative thing I found was internet speed, other than that, every thing was good.  Bathroom was very clean.. overall a very good two weeks stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded December 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2014</t>
+  </si>
+  <si>
+    <t>While moving from Oklahoma City to Houston due to my job relocation, I found this hotel near to my work location and in good price.  The only negative thing I found was internet speed, other than that, every thing was good.  Bathroom was very clean.. overall a very good two weeks stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r209018714-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209018714</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>terrible extended stay hotel</t>
+  </si>
+  <si>
+    <t>They try to charge you for everything from $10 for internet which is slow as hell to $10 for linen services but you have to bring your towels in to the front desk to exchange for clean ones.  The only good thing was the room was fairly clean.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r162278527-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162278527</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>Rude Staff</t>
+  </si>
+  <si>
+    <t>The staff at this location are very rude and unprofessional. The rooms are not clean, they are nasty. I would not recommend this hotel to my worst enemy! Rude Rude Rude, do not stay at this location!Customer service is very important, and this location has none.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r138378743-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138378743</t>
+  </si>
+  <si>
+    <t>08/26/2012</t>
+  </si>
+  <si>
+    <t>Hell Hotel</t>
+  </si>
+  <si>
+    <t>This is not the place! Noisy (unless you are on the 4th floor), hookers, vehicle break-ins, and plenty of low life. I would not wish this on my enemy. If you select price over peace of mind, so be it. One nice gentleman that works at night is the bright spot.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r129725037-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129725037</t>
+  </si>
+  <si>
+    <t>05/10/2012</t>
+  </si>
+  <si>
+    <t>Brand new hotel ... HOWEVER!!! :-(</t>
+  </si>
+  <si>
+    <t>CLean rooms. HOWEVER: No dishwasher. EXTREMELY uncomfortable beds. I am 32 years old fit male and I was heaving back pains starting after the second night at this extended stay place. They have plywood sheet for the bed base and a very stiff mattress that is like HELL to sleep on. Loud neighbors and poor noise insulation. I would not return here and don't recommend this place if you want to get rest. Hookers on site as well and some criminal activities out in the parking lot at night. Somebody called my room phone late at night and demanded oral sex!!!... HORRIBLE experience. :=(OH, and they overcharge too! There are plenty of places up and down I-45 within two exits for less $$$ for comparable rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>CLean rooms. HOWEVER: No dishwasher. EXTREMELY uncomfortable beds. I am 32 years old fit male and I was heaving back pains starting after the second night at this extended stay place. They have plywood sheet for the bed base and a very stiff mattress that is like HELL to sleep on. Loud neighbors and poor noise insulation. I would not return here and don't recommend this place if you want to get rest. Hookers on site as well and some criminal activities out in the parking lot at night. Somebody called my room phone late at night and demanded oral sex!!!... HORRIBLE experience. :=(OH, and they overcharge too! There are plenty of places up and down I-45 within two exits for less $$$ for comparable rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r62890154-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>62890154</t>
+  </si>
+  <si>
+    <t>04/30/2010</t>
+  </si>
+  <si>
+    <t>Cleaner, safer, simple!</t>
+  </si>
+  <si>
+    <t>Clean, safe, simple! Feel very safe inside the hotel. Management  is very strict, helpful and so friendly. But not the place to sleep late. Got a room next to the reception. The hall was noisy in the morning with doors slamming and people coming and going. A hotel more for business people etc. not leisure. Carly (the Netherlands)MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Heather L, Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded July 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2012</t>
+  </si>
+  <si>
+    <t>Clean, safe, simple! Feel very safe inside the hotel. Management  is very strict, helpful and so friendly. But not the place to sleep late. Got a room next to the reception. The hall was noisy in the morning with doors slamming and people coming and going. A hotel more for business people etc. not leisure. Carly (the Netherlands)More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +973,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1005,1294 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>114</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>151</v>
+      </c>
+      <c r="X15" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>165</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s">
+        <v>182</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O20" t="s">
+        <v>184</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>185</v>
+      </c>
+      <c r="X20" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_678.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_678.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,105 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r606892830-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1146238</t>
+  </si>
+  <si>
+    <t>606892830</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>You yeah you who's reading this.... run away from this nightmare</t>
+  </si>
+  <si>
+    <t>Tonight I stopped at the hotel to get some rest well as I went through the night resting was not happened. First I got checked to room 429 by Marvin on the front desk when I got to my room the water was coming out everywhere looking like black and rust mixed so I got out that room and went tell Marvin and his answer was the hotel had pipe put in earlier that day on the 4th floor so he switched me to room 129 so that time he went with me to the room to make sure that the water was running normal as he turned the kitchen water on it came out ok. After he left I started checking the room that is when I found a previous resident (mr and Mrs roach and their 3 children) on the cabinet then I went on to turn sink and shower water on both came out black and rust and when i lifted the toilet it was clogged with toilet papers and some other stuffs you do not want to know so I tried to flush it but the water still came out black and rust so I continued to go tell mr Marvin I needed to check out and needed a refund that was when i found out according to Mr Marvin that woodspring suites in Airtex does not give refund no matter what. So if I were...Tonight I stopped at the hotel to get some rest well as I went through the night resting was not happened. First I got checked to room 429 by Marvin on the front desk when I got to my room the water was coming out everywhere looking like black and rust mixed so I got out that room and went tell Marvin and his answer was the hotel had pipe put in earlier that day on the 4th floor so he switched me to room 129 so that time he went with me to the room to make sure that the water was running normal as he turned the kitchen water on it came out ok. After he left I started checking the room that is when I found a previous resident (mr and Mrs roach and their 3 children) on the cabinet then I went on to turn sink and shower water on both came out black and rust and when i lifted the toilet it was clogged with toilet papers and some other stuffs you do not want to know so I tried to flush it but the water still came out black and rust so I continued to go tell mr Marvin I needed to check out and needed a refund that was when i found out according to Mr Marvin that woodspring suites in Airtex does not give refund no matter what. So if I were you I would plan my trips to stay away from that hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Tonight I stopped at the hotel to get some rest well as I went through the night resting was not happened. First I got checked to room 429 by Marvin on the front desk when I got to my room the water was coming out everywhere looking like black and rust mixed so I got out that room and went tell Marvin and his answer was the hotel had pipe put in earlier that day on the 4th floor so he switched me to room 129 so that time he went with me to the room to make sure that the water was running normal as he turned the kitchen water on it came out ok. After he left I started checking the room that is when I found a previous resident (mr and Mrs roach and their 3 children) on the cabinet then I went on to turn sink and shower water on both came out black and rust and when i lifted the toilet it was clogged with toilet papers and some other stuffs you do not want to know so I tried to flush it but the water still came out black and rust so I continued to go tell mr Marvin I needed to check out and needed a refund that was when i found out according to Mr Marvin that woodspring suites in Airtex does not give refund no matter what. So if I were...Tonight I stopped at the hotel to get some rest well as I went through the night resting was not happened. First I got checked to room 429 by Marvin on the front desk when I got to my room the water was coming out everywhere looking like black and rust mixed so I got out that room and went tell Marvin and his answer was the hotel had pipe put in earlier that day on the 4th floor so he switched me to room 129 so that time he went with me to the room to make sure that the water was running normal as he turned the kitchen water on it came out ok. After he left I started checking the room that is when I found a previous resident (mr and Mrs roach and their 3 children) on the cabinet then I went on to turn sink and shower water on both came out black and rust and when i lifted the toilet it was clogged with toilet papers and some other stuffs you do not want to know so I tried to flush it but the water still came out black and rust so I continued to go tell mr Marvin I needed to check out and needed a refund that was when i found out according to Mr Marvin that woodspring suites in Airtex does not give refund no matter what. So if I were you I would plan my trips to stay away from that hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r575030462-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575030462</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>I stayed there 2 days ago for a Christian meeting by at the church down the street my overall stay was nice. Front desk girl Dee was really helpful answered any questions I had and was really nice the rest of the staff that I did get to meet was nice and friendly also. Will be visiting againMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2018</t>
+  </si>
+  <si>
+    <t>I stayed there 2 days ago for a Christian meeting by at the church down the street my overall stay was nice. Front desk girl Dee was really helpful answered any questions I had and was really nice the rest of the staff that I did get to meet was nice and friendly also. Will be visiting againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r475140577-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475140577</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Good clean hotel</t>
+  </si>
+  <si>
+    <t>My family and I have been in residence here since March 5, 2017 and overall have been very please with the care and courtesy show us. They have made every effort to ensure our comfort and I want to especially thank Trina for watching over us and attending to our care and requests. She has been professional and very kind to us all.  My only concern has been the WiFi service which is not reliable.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2017</t>
+  </si>
+  <si>
+    <t>My family and I have been in residence here since March 5, 2017 and overall have been very please with the care and courtesy show us. They have made every effort to ensure our comfort and I want to especially thank Trina for watching over us and attending to our care and requests. She has been professional and very kind to us all.  My only concern has been the WiFi service which is not reliable.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r459365058-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1146238</t>
-  </si>
-  <si>
     <t>459365058</t>
   </si>
   <si>
@@ -201,9 +288,6 @@
     <t>Positives- front desk lady helpful and friendly….. That is the end of the positives.  Reception area only open during limited hours so don't even think of checking in before 3. We reserved here out of desperation as we found ourselves traveling back from a cruise on super bowl Sunday in Houston.  Hallway drab- room large but in a really cheap and horrible apartment sort of way.  Room also had an odor.  Beds- terrible.  Really bad- worst night of sleep I've had in quite a while.  Sheets terrible quality and itchy.  Top sheet was also your comforter but it was indeed a sheet.  Came back from Super Bowl past 11 and, our key card and the toilet had stopped working- thank goodness my daughter and mother were in the, room.  Earlier they had used 2 towels and that is all that had been provided.  When they went for 2 more because there is 4 people in the room…. They were told they would have to return the 2 used ones.  Now after 11- there was no one at the front desk and no one, answering the phone. There is a bathroom near reception for all to use as long as u don't need toilet paper because there was none of that.  Kicker was when we were leaving and I noticed on the door… max rate for room 84.99- I was charged 120… ..never ever ever again….!! MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Stephen S, Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded February 7, 2017</t>
   </si>
   <si>
@@ -240,6 +324,57 @@
     <t>Ms Latausha was very helpful, very considerate . She was able to put a smile on my family's faces...I would definitely recommend this hotel to family and friends. Thank you so much ma'am for going the extra mile.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r425586805-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425586805</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will be back again!! </t>
+  </si>
+  <si>
+    <t>Family friendly. Quiet. Very clean. The employees are very friendly and helpful. Laundry and kitchen available, that's a plus!  Quick access to grocery stores, gas, etc. Feels safe.  I certainly will come back if I need to again in the future. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Family friendly. Quiet. Very clean. The employees are very friendly and helpful. Laundry and kitchen available, that's a plus!  Quick access to grocery stores, gas, etc. Feels safe.  I certainly will come back if I need to again in the future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r421795298-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421795298</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>The best place to stay for business or pleasure it's safe clean and the staff is great you can't go wrong staying here I loved it and I will stay again and again . I hope you try it and see. You will love it MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2016</t>
+  </si>
+  <si>
+    <t>The best place to stay for business or pleasure it's safe clean and the staff is great you can't go wrong staying here I loved it and I will stay again and again . I hope you try it and see. You will love it More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r419251491-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
   </si>
   <si>
@@ -255,9 +390,6 @@
     <t>The hotel is in a great location for my visit. The desk attendants were wonderful and friendly. Housekeeping was good, the rooms I had smelled clean and fresh! Loved the fact that there was an full size refrigerator! Only thing I could complain about was the carpet was a little worn, but overall the hotel is great! Will return on my next visit!MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>Stephen S, General Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded September 21, 2016</t>
   </si>
   <si>
@@ -315,6 +447,57 @@
     <t>My family and I stayed here for about a week while transitioning to our new home. It was decent but of course tight. The staff was friendly, the location is convenient! Some of the semi-permanent tenants may visual cause concern but everything me was respectable.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r384729525-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>384729525</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Fun and Clean</t>
+  </si>
+  <si>
+    <t>The staff is very nice and the rooms are very very clean. I've travel a lot and this hotel is by far the cleanest I've seen in awhile. And the asst manager Latausha was very helpful with my stay.                                                                                      THANK YOU VALUE PLACEMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded July 31, 2016</t>
+  </si>
+  <si>
+    <t>The staff is very nice and the rooms are very very clean. I've travel a lot and this hotel is by far the cleanest I've seen in awhile. And the asst manager Latausha was very helpful with my stay.                                                                                      THANK YOU VALUE PLACEMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r383553713-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383553713</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>A clean, comfortable, safe, and quiet place to stay. The staff is professional, sincere and friendly. The employees truly do a great job making it feel like a cozy home away from home. Thank you, Latausha for your good work.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>A clean, comfortable, safe, and quiet place to stay. The staff is professional, sincere and friendly. The employees truly do a great job making it feel like a cozy home away from home. Thank you, Latausha for your good work.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r356590030-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
   </si>
   <si>
@@ -333,12 +516,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Stephen S, Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded June 21, 2016</t>
-  </si>
-  <si>
-    <t>Responded June 21, 2016</t>
-  </si>
-  <si>
     <t>This place has been very very good. Each time it has been clean and well kept. The staff has been so friendly and helpful. Also feel very secure, they have cameras and good parking lot lighting.  The refrigerator and microwave are great even when traveling for a few days.More</t>
   </si>
   <si>
@@ -360,9 +537,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>I recommend this place because of the location and the staff is very friendly and helpful for all of my needs. They are very clean and quiet and right off the highway which makes it convenient to get around Houston.More</t>
   </si>
   <si>
@@ -384,6 +558,36 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r323722672-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323722672</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>So upset!</t>
+  </si>
+  <si>
+    <t>Made prior reservation. When I checked in, didn't have an available room, stayed in a different room until room ready next day. Paid $354 for a week, been there since Tuesday. My room hasn't been cleaned,, at all, u have to take ur own trash out, u have to buy Wi-Fi, no free breakfast, toilet runs when flushing, I have to take stopper out of sink for water to drain. Terrible! Will never stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r322227366-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322227366</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Comfy and quiet</t>
+  </si>
+  <si>
+    <t>I always use Value Places when traveling rather for one day or two weeks. I had to visit the Huntsville area but wanted to stay within Houston city limits and not pay the weekend Houston hotel prices.  I had somewhat of a late check in and was tired when I finally arrived. I was pleased with the attention to detail that was given to my room. The front desk lady was very pleasant and knowledgeable about the surrounding community. No roaches, funny smells, or anything negative to report. That was my second time staying and every Houston trip I make I will be staying there.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r320565747-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
   </si>
   <si>
@@ -435,6 +639,42 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r266610312-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266610312</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>So far so good</t>
+  </si>
+  <si>
+    <t>The hotels nice having a key to get in every door makes my kids feel safe ..comfy and quiet the staff are very friendly. No problems so far but I have awhile to be here..also my second time staying in a value place the one in tomball was nice as well.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r264907930-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>264907930</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>Watch their charges.</t>
+  </si>
+  <si>
+    <t>My experience at Value Place in Houston Airtex was not such a good experience.  Like some previous reviewers from the outside looks good.  Then they'll try to nickel and dime you for anything and if you are not careful, their rates jump from the usual 40.00 a day to 70.00 a day when you try to extend even if they haven't filled their rooms.  Additionally by the time you are done paying, it would have been better if you had stayed at a standard hotel or motel.  The bed was extremely uncomfortable and room too small. My rate jumped to 70.00 and the first time the attendant didn't even informed me so I found out when I saw it in my receipt.  Fortunately the gentleman at night did inform me so I didn't fall for it the second time.  Unless you are desperate, avoid it.  I also understood from add that wifi was free, but when I got there I had to pay extra.MoreShow less</t>
+  </si>
+  <si>
+    <t>My experience at Value Place in Houston Airtex was not such a good experience.  Like some previous reviewers from the outside looks good.  Then they'll try to nickel and dime you for anything and if you are not careful, their rates jump from the usual 40.00 a day to 70.00 a day when you try to extend even if they haven't filled their rooms.  Additionally by the time you are done paying, it would have been better if you had stayed at a standard hotel or motel.  The bed was extremely uncomfortable and room too small. My rate jumped to 70.00 and the first time the attendant didn't even informed me so I found out when I saw it in my receipt.  Fortunately the gentleman at night did inform me so I didn't fall for it the second time.  Unless you are desperate, avoid it.  I also understood from add that wifi was free, but when I got there I had to pay extra.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r261142789-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
   </si>
   <si>
@@ -498,6 +738,45 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r201481603-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201481603</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>This company is horrible. They are nothing more than thieves.</t>
+  </si>
+  <si>
+    <t>If you like being nickel  and dimmed, access to your room and belongings being cut off until you pay extra bogus charges added to your bill. Then stay here. They should have a class action lawsuit filled against them for blatantly ripping people off. I hope I get my deposit back. The place was in better condition when I left, than when I checked in. They only clean your room once every two weeks and charge you extra for it. And charge you extra for towel service. I didn't even get fresh towels, or get my room cleaned and was still charged extra. Don't expect to get much rest or peace of mind either. If it wasn't for my employer setting up our reservations I would have left and found a better hotel that same night. I've had enough and now finding another place to stay aftera few days of this place. Enough said. Heed the warning!!!!  Stay at your own risk!!!! You have been warned!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>If you like being nickel  and dimmed, access to your room and belongings being cut off until you pay extra bogus charges added to your bill. Then stay here. They should have a class action lawsuit filled against them for blatantly ripping people off. I hope I get my deposit back. The place was in better condition when I left, than when I checked in. They only clean your room once every two weeks and charge you extra for it. And charge you extra for towel service. I didn't even get fresh towels, or get my room cleaned and was still charged extra. Don't expect to get much rest or peace of mind either. If it wasn't for my employer setting up our reservations I would have left and found a better hotel that same night. I've had enough and now finding another place to stay aftera few days of this place. Enough said. Heed the warning!!!!  Stay at your own risk!!!! You have been warned!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r187844210-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187844210</t>
+  </si>
+  <si>
+    <t>12/16/2013</t>
+  </si>
+  <si>
+    <t>Bad experience</t>
+  </si>
+  <si>
+    <t>I intended to stay at this hotel for a 3 week period but it was cut short after the first night. As others have stated if your going to choose price over peace of mind then this the place is for you. Otherwise; BUYER BEWARE. It may look nice on the outside but the walls are thin and a good nights sleep is far from what you will actually receive.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r162278527-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
   </si>
   <si>
@@ -552,6 +831,57 @@
     <t>CLean rooms. HOWEVER: No dishwasher. EXTREMELY uncomfortable beds. I am 32 years old fit male and I was heaving back pains starting after the second night at this extended stay place. They have plywood sheet for the bed base and a very stiff mattress that is like HELL to sleep on. Loud neighbors and poor noise insulation. I would not return here and don't recommend this place if you want to get rest. Hookers on site as well and some criminal activities out in the parking lot at night. Somebody called my room phone late at night and demanded oral sex!!!... HORRIBLE experience. :=(OH, and they overcharge too! There are plenty of places up and down I-45 within two exits for less $$$ for comparable rooms.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r74231358-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>74231358</t>
+  </si>
+  <si>
+    <t>08/07/2010</t>
+  </si>
+  <si>
+    <t>A real value</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay. It was clean and secure.  Their sprinkler system did get spots on my car,, but it was dirty anyway.  The walls seemed thin.  but for 200 bucks it was a cheap weekMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Heather L, Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded July 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2012</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay. It was clean and secure.  Their sprinkler system did get spots on my car,, but it was dirty anyway.  The walls seemed thin.  but for 200 bucks it was a cheap weekMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r67235894-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>67235894</t>
+  </si>
+  <si>
+    <t>06/11/2010</t>
+  </si>
+  <si>
+    <t>Cordial, hospitable and money saved!</t>
+  </si>
+  <si>
+    <t>Brandon was the epitome of customer service and hospitality when we arrived and checked in late/after office hours.  He was very cordial, helpful, patient and professional.  You'd be hard-pressed to find a decent hotel/motel this low for a week at a time!  A/C didn't cool the room the first night but as soon as the problem was reported the next day we were moved to another room.  The common clothes washer and dryer were not overpriced, $1 each load.  We already made another reservation for the near future.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>Brandon was the epitome of customer service and hospitality when we arrived and checked in late/after office hours.  He was very cordial, helpful, patient and professional.  You'd be hard-pressed to find a decent hotel/motel this low for a week at a time!  A/C didn't cool the room the first night but as soon as the problem was reported the next day we were moved to another room.  The common clothes washer and dryer were not overpriced, $1 each load.  We already made another reservation for the near future.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146238-r62890154-WoodSpring_Suites_Houston_I_45_Airtex-Houston_Texas.html</t>
   </si>
   <si>
@@ -571,12 +901,6 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Heather L, Manager at WoodSpring Suites Houston I-45 Airtex, responded to this reviewResponded July 20, 2012</t>
-  </si>
-  <si>
-    <t>Responded July 20, 2012</t>
   </si>
   <si>
     <t>Clean, safe, simple! Feel very safe inside the hotel. Management  is very strict, helpful and so friendly. But not the place to sleep late. Got a room next to the reception. The hall was noisy in the morning with doors slamming and people coming and going. A hotel more for business people etc. not leisure. Carly (the Netherlands)More</t>
@@ -1114,7 +1438,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1175,13 +1499,13 @@
         <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1236,31 +1560,37 @@
         <v>69</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
         <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1276,7 +1606,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1285,49 +1615,43 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1343,7 +1667,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1352,25 +1676,25 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1382,13 +1706,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -1404,7 +1728,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1413,25 +1737,25 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1443,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -1465,7 +1789,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1474,47 +1798,43 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -1530,7 +1850,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1539,49 +1859,43 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -1597,7 +1911,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1606,39 +1920,49 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
         <v>4</v>
       </c>
-      <c r="N10" t="s">
-        <v>121</v>
-      </c>
-      <c r="O10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -1654,7 +1978,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1663,49 +1987,43 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
@@ -1721,7 +2039,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1730,25 +2048,25 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1759,10 +2077,14 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>133</v>
+      </c>
+      <c r="X12" t="s">
+        <v>134</v>
+      </c>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
@@ -1778,7 +2100,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1787,45 +2109,49 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
@@ -1841,7 +2167,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1850,25 +2176,25 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1879,10 +2205,14 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
@@ -1898,7 +2228,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1907,53 +2237,47 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="X15" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
@@ -1969,7 +2293,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1978,49 +2302,49 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>157</v>
+      </c>
+      <c r="X16" t="s">
+        <v>158</v>
+      </c>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
@@ -2036,7 +2360,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2045,49 +2369,39 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
@@ -2103,7 +2417,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2112,49 +2426,39 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="O18" t="s">
-        <v>114</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>2</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
@@ -2170,7 +2474,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2179,41 +2483,37 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2221,7 +2521,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
@@ -2237,7 +2537,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2246,53 +2546,1030 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="O20" t="s">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>185</v>
-      </c>
-      <c r="X20" t="s">
-        <v>186</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>200</v>
+      </c>
+      <c r="O21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>206</v>
+      </c>
+      <c r="O22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>212</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>212</v>
+      </c>
+      <c r="O24" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>224</v>
+      </c>
+      <c r="O25" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>231</v>
+      </c>
+      <c r="X26" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>245</v>
+      </c>
+      <c r="O28" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>252</v>
+      </c>
+      <c r="O29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>258</v>
+      </c>
+      <c r="O30" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>260</v>
+      </c>
+      <c r="J31" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" t="s">
+        <v>263</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>264</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>266</v>
+      </c>
+      <c r="J32" t="s">
+        <v>267</v>
+      </c>
+      <c r="K32" t="s">
+        <v>268</v>
+      </c>
+      <c r="L32" t="s">
+        <v>269</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>264</v>
+      </c>
+      <c r="O32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33" t="s">
+        <v>274</v>
+      </c>
+      <c r="L33" t="s">
+        <v>275</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>276</v>
+      </c>
+      <c r="O33" t="s">
+        <v>277</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>278</v>
+      </c>
+      <c r="X33" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J34" t="s">
+        <v>283</v>
+      </c>
+      <c r="K34" t="s">
+        <v>284</v>
+      </c>
+      <c r="L34" t="s">
+        <v>285</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>286</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>278</v>
+      </c>
+      <c r="X34" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>288</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>289</v>
+      </c>
+      <c r="J35" t="s">
+        <v>290</v>
+      </c>
+      <c r="K35" t="s">
+        <v>291</v>
+      </c>
+      <c r="L35" t="s">
+        <v>292</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>293</v>
+      </c>
+      <c r="O35" t="s">
+        <v>294</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>278</v>
+      </c>
+      <c r="X35" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
